--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/54.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/54.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1467042591445173</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.498440043343171</v>
+        <v>-1.531741712293615</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2097001444333796</v>
+        <v>0.2229732382007709</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1793492717170428</v>
+        <v>0.117316069447028</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1632193690288442</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.439437536915917</v>
+        <v>-1.427356838071568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2166184746697329</v>
+        <v>0.1985343266041529</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1612907403198863</v>
+        <v>0.09260269354587349</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1875082865926418</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.474362204787188</v>
+        <v>-1.417325472701093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1793767181474965</v>
+        <v>0.1897478093349204</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1881662850201127</v>
+        <v>0.1318346212363388</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2178015125880379</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.562016954846035</v>
+        <v>-1.494739044676664</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1766851382010073</v>
+        <v>0.2186434113165364</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1724882740243039</v>
+        <v>0.0853787930504695</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2509447460643081</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.533187224297508</v>
+        <v>-1.495500835601922</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2725012368354202</v>
+        <v>0.3275166917987717</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2059113171894207</v>
+        <v>0.09694776844702666</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2811766828356529</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.401607816861296</v>
+        <v>-1.434095241708281</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3482119102815101</v>
+        <v>0.3824510273121158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1092596272278629</v>
+        <v>0.02721614739509794</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3020373419022106</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.105559029495233</v>
+        <v>-1.162669561983214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4204551846802873</v>
+        <v>0.423695083315173</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06006891472745533</v>
+        <v>-0.02757485675921035</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3081638922647896</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6135884727407747</v>
+        <v>-0.5838627687181046</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3860971331177157</v>
+        <v>0.3631098327317582</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01370884408783545</v>
+        <v>-0.02171473889701501</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2953501556450375</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01569787142089542</v>
+        <v>0.02135237000884211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.427399131585064</v>
+        <v>0.3131536697820317</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.030824514124924</v>
+        <v>-0.05903822478993567</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2585509966514862</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5934622342432577</v>
+        <v>0.8045143058597417</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2521311060733885</v>
+        <v>0.123068231349439</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02484607165143954</v>
+        <v>-0.005716519545913449</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1909772296677149</v>
       </c>
       <c r="E12" t="n">
-        <v>1.289645822065824</v>
+        <v>1.577373461639013</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1197716860978003</v>
+        <v>-0.2635952511197296</v>
       </c>
       <c r="G12" t="n">
-        <v>0.040622813790697</v>
+        <v>0.1016752636125009</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.08788867563739282</v>
       </c>
       <c r="E13" t="n">
-        <v>1.92885184010794</v>
+        <v>2.322508063136025</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4881125415167805</v>
+        <v>-0.6252025822674112</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1521474194547562</v>
+        <v>0.224120498993734</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.05021824792442775</v>
       </c>
       <c r="E14" t="n">
-        <v>2.501725934950321</v>
+        <v>3.013315200193057</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.04843385891101</v>
+        <v>-1.163859517223549</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2822050748024817</v>
+        <v>0.395581399641148</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2175567615855423</v>
       </c>
       <c r="E15" t="n">
-        <v>3.195923011128718</v>
+        <v>3.719202016062007</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.666391460416577</v>
+        <v>-1.748916167663296</v>
       </c>
       <c r="G15" t="n">
-        <v>0.372670339339784</v>
+        <v>0.5406589615744714</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4042299377562768</v>
       </c>
       <c r="E16" t="n">
-        <v>3.835145497029106</v>
+        <v>4.333001788314183</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.244905491756847</v>
+        <v>-2.255300369850664</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5791272685776481</v>
+        <v>0.7214821446099681</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5966609422167226</v>
       </c>
       <c r="E17" t="n">
-        <v>4.41074227777249</v>
+        <v>4.942033200715542</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.881505928667895</v>
+        <v>-2.801065320373624</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7757931411916756</v>
+        <v>0.9335247274054909</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7859686100137986</v>
       </c>
       <c r="E18" t="n">
-        <v>4.806089200916521</v>
+        <v>5.303075745316555</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.502939468110249</v>
+        <v>-3.34129432587408</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9778488828261258</v>
+        <v>1.124985536964151</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.970780404826838</v>
       </c>
       <c r="E19" t="n">
-        <v>5.177932220861389</v>
+        <v>5.619461117807429</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.097477335470044</v>
+        <v>-3.843232511288293</v>
       </c>
       <c r="G19" t="n">
-        <v>1.220758941151191</v>
+        <v>1.359759253461397</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.15153986950169</v>
       </c>
       <c r="E20" t="n">
-        <v>5.54920435505282</v>
+        <v>5.971230428439164</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.664999376373961</v>
+        <v>-4.347738157791277</v>
       </c>
       <c r="G20" t="n">
-        <v>1.401044784070473</v>
+        <v>1.532442435145014</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.326797287377361</v>
       </c>
       <c r="E21" t="n">
-        <v>5.856687325345879</v>
+        <v>6.183576751731708</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.059342980004741</v>
+        <v>-4.657719973096973</v>
       </c>
       <c r="G21" t="n">
-        <v>1.547658736188524</v>
+        <v>1.675693894572154</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.489190509884674</v>
       </c>
       <c r="E22" t="n">
-        <v>6.038474183050638</v>
+        <v>6.319645175348786</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.343221410186974</v>
+        <v>-4.937116096225784</v>
       </c>
       <c r="G22" t="n">
-        <v>1.742652206306909</v>
+        <v>1.872922114050143</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.6305515394708</v>
       </c>
       <c r="E23" t="n">
-        <v>6.225136746645321</v>
+        <v>6.390567971482403</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.572566222740486</v>
+        <v>-5.197017324763697</v>
       </c>
       <c r="G23" t="n">
-        <v>1.871471722680836</v>
+        <v>1.978096225627901</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.743425316420312</v>
       </c>
       <c r="E24" t="n">
-        <v>6.426835074763196</v>
+        <v>6.48189139441189</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.670296709899041</v>
+        <v>-5.314966529876282</v>
       </c>
       <c r="G24" t="n">
-        <v>1.96165520386548</v>
+        <v>2.07015826249693</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.824013600657223</v>
       </c>
       <c r="E25" t="n">
-        <v>6.479861578399672</v>
+        <v>6.489393418735891</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.71482839082994</v>
+        <v>-5.339678380975744</v>
       </c>
       <c r="G25" t="n">
-        <v>2.023997635918606</v>
+        <v>2.132031665549636</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.872027890831593</v>
       </c>
       <c r="E26" t="n">
-        <v>6.535292389343889</v>
+        <v>6.54449365267331</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.684276854210953</v>
+        <v>-5.339875385354333</v>
       </c>
       <c r="G26" t="n">
-        <v>2.025171733221347</v>
+        <v>2.158717524919394</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.889382295347269</v>
       </c>
       <c r="E27" t="n">
-        <v>6.48366748342258</v>
+        <v>6.432739106914117</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.697973842848683</v>
+        <v>-5.329210617361055</v>
       </c>
       <c r="G27" t="n">
-        <v>2.040377665613352</v>
+        <v>2.168015155715742</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.877243799533411</v>
       </c>
       <c r="E28" t="n">
-        <v>6.453715498828837</v>
+        <v>6.342337884047874</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.575802614331479</v>
+        <v>-5.252061750959194</v>
       </c>
       <c r="G28" t="n">
-        <v>1.996451788394634</v>
+        <v>2.129004019310259</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.837332691449294</v>
       </c>
       <c r="E29" t="n">
-        <v>6.382253532816973</v>
+        <v>6.246858461627026</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.419960409894061</v>
+        <v>-5.096108083518099</v>
       </c>
       <c r="G29" t="n">
-        <v>1.905493098029843</v>
+        <v>2.047011772814341</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.771563282294967</v>
       </c>
       <c r="E30" t="n">
-        <v>6.302116055099046</v>
+        <v>6.092178918479657</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.236122998874075</v>
+        <v>-4.897556031211228</v>
       </c>
       <c r="G30" t="n">
-        <v>1.881623852345307</v>
+        <v>1.995678408976517</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.683106343851153</v>
       </c>
       <c r="E31" t="n">
-        <v>6.231265229605285</v>
+        <v>5.926229261067339</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.072376984866847</v>
+        <v>-4.765365483256915</v>
       </c>
       <c r="G31" t="n">
-        <v>1.777277403125896</v>
+        <v>1.88983643425772</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.575417262679236</v>
       </c>
       <c r="E32" t="n">
-        <v>6.078308102449054</v>
+        <v>5.740182717356172</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.816740626661096</v>
+        <v>-4.517179001157302</v>
       </c>
       <c r="G32" t="n">
-        <v>1.753888774934638</v>
+        <v>1.82106909779573</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.453840237993828</v>
       </c>
       <c r="E33" t="n">
-        <v>5.842470074370882</v>
+        <v>5.476918996127347</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.655117441569289</v>
+        <v>-4.366094940399364</v>
       </c>
       <c r="G33" t="n">
-        <v>1.648344441506094</v>
+        <v>1.725410358695918</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.323484992879163</v>
       </c>
       <c r="E34" t="n">
-        <v>5.641894000298223</v>
+        <v>5.262408674273702</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.423839790391163</v>
+        <v>-4.150683155785485</v>
       </c>
       <c r="G34" t="n">
-        <v>1.516202077285243</v>
+        <v>1.578317618846619</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.189809182197651</v>
       </c>
       <c r="E35" t="n">
-        <v>5.43779990376208</v>
+        <v>5.004531772461916</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.295019969056898</v>
+        <v>-4.013259793385011</v>
       </c>
       <c r="G35" t="n">
-        <v>1.474079735507669</v>
+        <v>1.512670636566872</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.058229436819081</v>
       </c>
       <c r="E36" t="n">
-        <v>5.216681701296547</v>
+        <v>4.711338023783711</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.096985739404586</v>
+        <v>-3.851576226146207</v>
       </c>
       <c r="G36" t="n">
-        <v>1.434194582772407</v>
+        <v>1.470536096375763</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9335465513950828</v>
       </c>
       <c r="E37" t="n">
-        <v>4.903156856779622</v>
+        <v>4.39435004966421</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.983398077051426</v>
+        <v>-3.71082056212832</v>
       </c>
       <c r="G37" t="n">
-        <v>1.362529513175186</v>
+        <v>1.376116716091103</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.818523343690014</v>
       </c>
       <c r="E38" t="n">
-        <v>4.632177638989933</v>
+        <v>4.112204404124618</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.90136039146509</v>
+        <v>-3.615224034937536</v>
       </c>
       <c r="G38" t="n">
-        <v>1.273421932064325</v>
+        <v>1.267272711801351</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.715441703991211</v>
       </c>
       <c r="E39" t="n">
-        <v>4.358679448805276</v>
+        <v>3.849484732139453</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.893801644518152</v>
+        <v>-3.556826569821617</v>
       </c>
       <c r="G39" t="n">
-        <v>1.220604021299297</v>
+        <v>1.179381312519926</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.62556619899826</v>
       </c>
       <c r="E40" t="n">
-        <v>4.049865631595553</v>
+        <v>3.509962628696819</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.78658368875261</v>
+        <v>-3.476515569671155</v>
       </c>
       <c r="G40" t="n">
-        <v>1.136508158389275</v>
+        <v>1.093375178050329</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5490481097177585</v>
       </c>
       <c r="E41" t="n">
-        <v>3.852747807760055</v>
+        <v>3.295199799683</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.705132441896968</v>
+        <v>-3.385683437846789</v>
       </c>
       <c r="G41" t="n">
-        <v>1.071788255538185</v>
+        <v>1.031226090851732</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.484834984689278</v>
       </c>
       <c r="E42" t="n">
-        <v>3.539291274358926</v>
+        <v>2.999296783358679</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.695515212666004</v>
+        <v>-3.301044440574122</v>
       </c>
       <c r="G42" t="n">
-        <v>1.059572154303598</v>
+        <v>1.014944258385943</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4315377509269896</v>
       </c>
       <c r="E43" t="n">
-        <v>3.233739312928451</v>
+        <v>2.665812894615851</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.603446466669531</v>
+        <v>-3.20682053986636</v>
       </c>
       <c r="G43" t="n">
-        <v>1.000194546660144</v>
+        <v>0.9235403259271252</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3859813530178344</v>
       </c>
       <c r="E44" t="n">
-        <v>3.011139003218419</v>
+        <v>2.438156342495577</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.548312687094891</v>
+        <v>-3.172289270831592</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9860370679114684</v>
+        <v>0.9090376320754099</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.345301041184024</v>
       </c>
       <c r="E45" t="n">
-        <v>2.722905129483529</v>
+        <v>2.176885842038365</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.451745776107401</v>
+        <v>-3.080989634808499</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8998510068422306</v>
+        <v>0.8378568394955278</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3073742977074572</v>
       </c>
       <c r="E46" t="n">
-        <v>2.535857096021142</v>
+        <v>2.030098672448117</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.395107322223223</v>
+        <v>-2.992946670238902</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8925526960242633</v>
+        <v>0.7987651935607145</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2702764254288968</v>
       </c>
       <c r="E47" t="n">
-        <v>2.301143761670894</v>
+        <v>1.809789834720628</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.2950919197294</v>
+        <v>-2.916547091388424</v>
       </c>
       <c r="G47" t="n">
-        <v>0.784623572749634</v>
+        <v>0.7253087869358854</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2331806875584489</v>
       </c>
       <c r="E48" t="n">
-        <v>2.149102735371138</v>
+        <v>1.682707372434079</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.269735687434953</v>
+        <v>-2.848313435518589</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6989413061593901</v>
+        <v>0.6563676230810221</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1949918299687973</v>
       </c>
       <c r="E49" t="n">
-        <v>1.932333267330818</v>
+        <v>1.499608575353636</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.208316675286423</v>
+        <v>-2.811547417124216</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6225792374305332</v>
+        <v>0.574593118266703</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1562419582337407</v>
       </c>
       <c r="E50" t="n">
-        <v>1.809079887052893</v>
+        <v>1.406528580875114</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.132433394288813</v>
+        <v>-2.728283486017278</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5614639657790244</v>
+        <v>0.5649618608601744</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1168630975550233</v>
       </c>
       <c r="E51" t="n">
-        <v>1.662990466716845</v>
+        <v>1.316911715999169</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.05130113594711</v>
+        <v>-2.661914967576938</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4883997381493442</v>
+        <v>0.4741166157412582</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07713310191357896</v>
       </c>
       <c r="E52" t="n">
-        <v>1.576154230206194</v>
+        <v>1.267496552689718</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.935297272833013</v>
+        <v>-2.577580625682308</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3990268415440978</v>
+        <v>0.397552053347721</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03747043180922423</v>
       </c>
       <c r="E53" t="n">
-        <v>1.457721662957286</v>
+        <v>1.230614649366763</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.900204876775637</v>
+        <v>-2.537320371730845</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4014793325853017</v>
+        <v>0.3900427099755989</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.00186710776715582</v>
       </c>
       <c r="E54" t="n">
-        <v>1.294844175993747</v>
+        <v>1.152378904318936</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.850647601948504</v>
+        <v>-2.479302277275863</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3277490715766128</v>
+        <v>0.3360732689728703</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0407329538031885</v>
       </c>
       <c r="E55" t="n">
-        <v>1.220658304239528</v>
+        <v>1.132766295037426</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.809985410271064</v>
+        <v>-2.457503712288887</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2944803383427132</v>
+        <v>0.3067641407724191</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.07915713937869917</v>
       </c>
       <c r="E56" t="n">
-        <v>1.157447345142712</v>
+        <v>1.118746048441018</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.772144101723585</v>
+        <v>-2.425564606130298</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2468119878514687</v>
+        <v>0.2614470344900384</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1173337766717348</v>
       </c>
       <c r="E57" t="n">
-        <v>1.006441964152075</v>
+        <v>1.011955647069877</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.747542341306275</v>
+        <v>-2.391365743864358</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2034759039271657</v>
+        <v>0.2268999075176749</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1552168809062794</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9536124648941882</v>
+        <v>1.018296992346027</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.766637127933226</v>
+        <v>-2.416901902758446</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1657059560988655</v>
+        <v>0.2180267815123441</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1933841884772862</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8628288217636235</v>
+        <v>1.000367154211664</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.70681915756116</v>
+        <v>-2.349860641811653</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1601605573058721</v>
+        <v>0.2130815446652709</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2320064193834991</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7928123677556534</v>
+        <v>0.9976164119595303</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.732309572404492</v>
+        <v>-2.3696690356304</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1067607822152262</v>
+        <v>0.1945735017293511</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2711301511126771</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8216408784628272</v>
+        <v>1.105227766561574</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.736644888574817</v>
+        <v>-2.392945438417136</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1041606903702492</v>
+        <v>0.2108181290338588</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3107210640797304</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7794178997735893</v>
+        <v>1.130057027391311</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.717870920223835</v>
+        <v>-2.381176409038605</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0569223339561121</v>
+        <v>0.1768900715483946</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3506997159908216</v>
       </c>
       <c r="E63" t="n">
-        <v>0.758470784051354</v>
+        <v>1.193772390887796</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.7148054589025</v>
+        <v>-2.392555699104693</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03050240000141648</v>
+        <v>0.1443538530472695</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3908280924160473</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7628000010149117</v>
+        <v>1.282875092633244</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.796387838703643</v>
+        <v>-2.456400975705327</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06791066486840511</v>
+        <v>0.1698735440830849</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4302904207575033</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7415082801103138</v>
+        <v>1.325797650338711</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.899902966040647</v>
+        <v>-2.591440463140731</v>
       </c>
       <c r="G65" t="n">
-        <v>0.001063358696817963</v>
+        <v>0.1361132147837265</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4684018146745913</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7251929020073032</v>
+        <v>1.369568607705536</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.96502175701433</v>
+        <v>-2.673142387394516</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02068946223940153</v>
+        <v>0.1405436785796244</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5039710471754749</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6541444622142755</v>
+        <v>1.417044223262928</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.967137571841969</v>
+        <v>-2.720969317261715</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07316215790139044</v>
+        <v>0.09971802816081633</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5357327907087974</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6586706835564228</v>
+        <v>1.455661350911231</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.027372422996592</v>
+        <v>-2.816886662728469</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1466673581803594</v>
+        <v>0.06153333427232742</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5626499799571475</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6114689223828906</v>
+        <v>1.448444159543271</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.056700763698361</v>
+        <v>-2.863113770660557</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1264991111623314</v>
+        <v>0.09335594558165734</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5835414314501136</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5864908409080274</v>
+        <v>1.463744019719496</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.1277095586474</v>
+        <v>-2.903621042486103</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1403339418730076</v>
+        <v>0.09234835662366955</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5973045848626316</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5543553402915257</v>
+        <v>1.454647052825799</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.151132952317232</v>
+        <v>-2.973200183368845</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1692179553617653</v>
+        <v>0.08792582179656938</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6031194326527346</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5168025242241477</v>
+        <v>1.444904179935426</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.211832258067199</v>
+        <v>-3.047144526535072</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2401065959374851</v>
+        <v>0.04336989651877025</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6002135605044613</v>
       </c>
       <c r="E73" t="n">
-        <v>0.510452030137847</v>
+        <v>1.485807900200857</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.272468132066784</v>
+        <v>-3.108125615637697</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3301473556837707</v>
+        <v>-0.01596745636001806</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5884374694872829</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4462743467683861</v>
+        <v>1.466617965948333</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.307622130112512</v>
+        <v>-3.155488090909552</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3789050245036872</v>
+        <v>-0.0388797365027356</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5677249096784464</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4500948898875359</v>
+        <v>1.445625106175342</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.30070715443988</v>
+        <v>-3.164907095920572</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3631501635026081</v>
+        <v>-0.02538097208494759</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.538036416378435</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4649891528137235</v>
+        <v>1.456242605316172</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.355188013930062</v>
+        <v>-3.231135027644922</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3873743830210107</v>
+        <v>-0.03760683205036241</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4995383124936978</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3903854853959313</v>
+        <v>1.343860451180605</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.381422227038688</v>
+        <v>-3.250856202806893</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4062703355073423</v>
+        <v>-0.0484451224761754</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4519520663216439</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4329585585536225</v>
+        <v>1.382408047871759</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.371595795015601</v>
+        <v>-3.242150804987668</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3711846485774102</v>
+        <v>-0.01893350061104386</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3960413592382954</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4743197193266153</v>
+        <v>1.401879155556264</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.336091397541081</v>
+        <v>-3.199017824648722</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3260340506397817</v>
+        <v>0.0184650055251168</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3327108089701019</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5335875412482544</v>
+        <v>1.439484424801842</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.304220602498288</v>
+        <v>-3.152082598810929</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3400646658876941</v>
+        <v>0.009406463634054648</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2631669832866433</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7134366809629844</v>
+        <v>1.570579555220716</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.178655012934812</v>
+        <v>-3.038801116637497</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3585342838209788</v>
+        <v>-0.01345824269587655</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1892838141828752</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8061464535907195</v>
+        <v>1.644051819783141</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.051468864133216</v>
+        <v>-2.921236161551263</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3196475712335529</v>
+        <v>0.008086595289571849</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1129384386297217</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9993315089025459</v>
+        <v>1.819839497711406</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.910253319925062</v>
+        <v>-2.785163468489448</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2789622025703969</v>
+        <v>0.05299200511514762</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.03646978728200512</v>
       </c>
       <c r="E84" t="n">
-        <v>1.292848515539428</v>
+        <v>2.018612036342921</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.819484924811416</v>
+        <v>-2.70223926319946</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3167449587329089</v>
+        <v>0.01638151649334544</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.0373201403323961</v>
       </c>
       <c r="E85" t="n">
-        <v>1.514991994662575</v>
+        <v>2.168950774033873</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.596708348025803</v>
+        <v>-2.489515399008009</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2703129174534327</v>
+        <v>0.06239576210924917</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1052116552731319</v>
       </c>
       <c r="E86" t="n">
-        <v>1.788926888051784</v>
+        <v>2.324613509312159</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.390873537878222</v>
+        <v>-2.303736000553258</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.292201750700567</v>
+        <v>0.06498304562001443</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1639174823107237</v>
       </c>
       <c r="E87" t="n">
-        <v>1.963087297614485</v>
+        <v>2.438993153664076</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.137153245478475</v>
+        <v>-2.041354224623011</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2793598708516367</v>
+        <v>0.08077450186169841</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2100888009705717</v>
       </c>
       <c r="E88" t="n">
-        <v>2.165459588080167</v>
+        <v>2.532653792626861</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.819271737567538</v>
+        <v>-1.73908180667141</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2290969178015059</v>
+        <v>0.09157131768149253</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2413492329498783</v>
       </c>
       <c r="E89" t="n">
-        <v>2.232953410169107</v>
+        <v>2.565598048060731</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.587212168081821</v>
+        <v>-1.5395956608481</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.247856248056246</v>
+        <v>0.04179325156937652</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2554283755454387</v>
       </c>
       <c r="E90" t="n">
-        <v>2.371744519687188</v>
+        <v>2.626698681615998</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.408412091931097</v>
+        <v>-1.317645526579481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2616709513845895</v>
+        <v>0.03950055974548058</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2510622492191307</v>
       </c>
       <c r="E91" t="n">
-        <v>2.39675858648198</v>
+        <v>2.631177939066035</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.088273267595516</v>
+        <v>-0.9564950260186841</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2238619686329774</v>
+        <v>0.04546802364678357</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2289441385020395</v>
       </c>
       <c r="E92" t="n">
-        <v>2.333393927374624</v>
+        <v>2.562765576437913</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9257287973214817</v>
+        <v>-0.7507882992132201</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2260387755282912</v>
+        <v>0.03353187600282408</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1911120049437987</v>
       </c>
       <c r="E93" t="n">
-        <v>2.269398610287511</v>
+        <v>2.489827602388319</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6901780418820586</v>
+        <v>-0.4358362403127044</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2308705671294893</v>
+        <v>-0.04518448653828028</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1427187598712856</v>
       </c>
       <c r="E94" t="n">
-        <v>2.210486372120416</v>
+        <v>2.439120017164839</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4478004443077943</v>
+        <v>-0.1734928893850925</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2027910390133622</v>
+        <v>-0.0887035466656077</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.08969026309850021</v>
       </c>
       <c r="E95" t="n">
-        <v>2.053005463304744</v>
+        <v>2.293746643703293</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2534601992342071</v>
+        <v>0.03716212387082852</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2049739451154435</v>
+        <v>-0.1348184291931749</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03829117866577506</v>
       </c>
       <c r="E96" t="n">
-        <v>1.907642458494703</v>
+        <v>2.137586823073458</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1107527890507267</v>
+        <v>0.2047067238528433</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2144765092591782</v>
+        <v>-0.1879516689480819</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.004766819045400882</v>
       </c>
       <c r="E97" t="n">
-        <v>1.758585164145598</v>
+        <v>1.967476896725041</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06416392215114179</v>
+        <v>0.3338769446159005</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2076655250619327</v>
+        <v>-0.2059736051046336</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.03611787668878367</v>
       </c>
       <c r="E98" t="n">
-        <v>1.577821753336423</v>
+        <v>1.760943727402583</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1725517057746857</v>
+        <v>0.4300815627214019</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2781815041041594</v>
+        <v>-0.3371693724351711</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.05552672106331929</v>
       </c>
       <c r="E99" t="n">
-        <v>1.475667359029244</v>
+        <v>1.600200352886986</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2883128204594368</v>
+        <v>0.4817308654697809</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2579473856530426</v>
+        <v>-0.3248715418299</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.06592945712092593</v>
       </c>
       <c r="E100" t="n">
-        <v>1.320575509504395</v>
+        <v>1.424487085281284</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3372876210402757</v>
+        <v>0.5068370302867613</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3263695070119932</v>
+        <v>-0.4178295521730715</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07253305340937115</v>
       </c>
       <c r="E101" t="n">
-        <v>1.258933876308852</v>
+        <v>1.292170283746884</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4022551516861252</v>
+        <v>0.5134729672497801</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.342914215289461</v>
+        <v>-0.4204351333041392</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08199002672421088</v>
       </c>
       <c r="E102" t="n">
-        <v>1.134283777681175</v>
+        <v>1.086008556116566</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4172713987476624</v>
+        <v>0.4696629749596439</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.383045166057453</v>
+        <v>-0.4567205342052347</v>
       </c>
     </row>
   </sheetData>
